--- a/AnalysisCat.Helper/CatConfig/Cat020pt14ed19.xlsx
+++ b/AnalysisCat.Helper/CatConfig/Cat020pt14ed19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\AnalysisCat\AnalysisCat.Helper\CatConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D063EB-4AB5-4D27-8016-4FB34D752FDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1013B8-BC8D-4316-9EA8-34C21E33214A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,308 +27,312 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
+    <t>I020/010</t>
+  </si>
+  <si>
+    <t>Data Source Identifier</t>
+  </si>
+  <si>
+    <t>I020/020</t>
+  </si>
+  <si>
+    <t>Target Report Descriptor</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I020/140</t>
+  </si>
+  <si>
+    <t>Time of Day</t>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I020/041</t>
+  </si>
+  <si>
+    <t>Position in WGS-84 Coordinates</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I020/042</t>
+  </si>
+  <si>
+    <t>Position in Cartesian Coordinates</t>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I020/161</t>
+  </si>
+  <si>
+    <t>Track Number</t>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I020/170</t>
+  </si>
+  <si>
+    <t>Track Status</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>Field Extension Indicator</t>
+  </si>
+  <si>
+    <t>I020/070</t>
+  </si>
+  <si>
+    <t>Mode-3/A Code in Octal Representation</t>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I020/202</t>
+  </si>
+  <si>
+    <t>Calculated Track Velocity in Cartesian Coord.</t>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I020/090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flight Level in Binary Representation</t>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I020/100</t>
+  </si>
+  <si>
+    <t>Mode-C Code</t>
+  </si>
+  <si>
+    <t>I020/220</t>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target Address</t>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I020/245</t>
+  </si>
+  <si>
+    <t>Target Identification</t>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I020/110</t>
+  </si>
+  <si>
+    <t>Measured Height (Cartesian Coordinates)</t>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I020/105</t>
+  </si>
+  <si>
+    <t>Geometric Height (WGS-84)</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I020/210</t>
+  </si>
+  <si>
+    <t>Calculated Acceleration</t>
+  </si>
+  <si>
+    <t>I020/300</t>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vehicle Fleet Identification</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I020/310</t>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-programmed Message</t>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I020/500</t>
+  </si>
+  <si>
+    <t>Position Accuracy</t>
+  </si>
+  <si>
+    <t>1+n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I020/400</t>
+  </si>
+  <si>
+    <t>Contributing Devices</t>
+  </si>
+  <si>
+    <t>1+1+</t>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I020/250</t>
+  </si>
+  <si>
+    <t>Mode S MB Data</t>
+  </si>
+  <si>
+    <t>1+8n</t>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I020/230</t>
+  </si>
+  <si>
+    <t>Comms/ACAS Capability and Flight Status</t>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I020/260</t>
+  </si>
+  <si>
+    <t>ACAS Resolution Advisory Report</t>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I020/030</t>
+  </si>
+  <si>
+    <t>Warning/Error Conditions</t>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I020/055</t>
+  </si>
+  <si>
+    <t>Mode-1 Code in Octal Representation</t>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I020/050</t>
+  </si>
+  <si>
+    <t>Mode-2 Code in Octal Representation</t>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>Reserved Expansion Field</t>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Special Purpose Field</t>
+  </si>
+  <si>
     <t>FRN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Information</t>
-  </si>
-  <si>
-    <t>I020/010</t>
-  </si>
-  <si>
-    <t>Data Source Identifier</t>
-  </si>
-  <si>
-    <t>I020/020</t>
-  </si>
-  <si>
-    <t>Target Report Descriptor</t>
-  </si>
-  <si>
-    <t>1+</t>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I020/140</t>
-  </si>
-  <si>
-    <t>Time of Day</t>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I020/041</t>
-  </si>
-  <si>
-    <t>Position in WGS-84 Coordinates</t>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I020/042</t>
-  </si>
-  <si>
-    <t>Position in Cartesian Coordinates</t>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I020/161</t>
-  </si>
-  <si>
-    <t>Track Number</t>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I020/170</t>
-  </si>
-  <si>
-    <t>Track Status</t>
-  </si>
-  <si>
-    <t>FX</t>
-  </si>
-  <si>
-    <t>Field Extension Indicator</t>
-  </si>
-  <si>
-    <t>I020/070</t>
-  </si>
-  <si>
-    <t>Mode-3/A Code in Octal Representation</t>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I020/202</t>
-  </si>
-  <si>
-    <t>Calculated Track Velocity in Cartesian Coord.</t>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I020/090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flight Level in Binary Representation</t>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I020/100</t>
-  </si>
-  <si>
-    <t>Mode-C Code</t>
-  </si>
-  <si>
-    <t>I020/220</t>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target Address</t>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I020/245</t>
-  </si>
-  <si>
-    <t>Target Identification</t>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I020/110</t>
-  </si>
-  <si>
-    <t>Measured Height (Cartesian Coordinates)</t>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I020/105</t>
-  </si>
-  <si>
-    <t>Geometric Height (WGS-84)</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I020/210</t>
-  </si>
-  <si>
-    <t>Calculated Acceleration</t>
-  </si>
-  <si>
-    <t>I020/300</t>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vehicle Fleet Identification</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I020/310</t>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pre-programmed Message</t>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I020/500</t>
-  </si>
-  <si>
-    <t>Position Accuracy</t>
-  </si>
-  <si>
-    <t>1+n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I020/400</t>
-  </si>
-  <si>
-    <t>Contributing Devices</t>
-  </si>
-  <si>
-    <t>1+1+</t>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I020/250</t>
-  </si>
-  <si>
-    <t>Mode S MB Data</t>
-  </si>
-  <si>
-    <t>1+8n</t>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I020/230</t>
-  </si>
-  <si>
-    <t>Comms/ACAS Capability and Flight Status</t>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I020/260</t>
-  </si>
-  <si>
-    <t>ACAS Resolution Advisory Report</t>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I020/030</t>
-  </si>
-  <si>
-    <t>Warning/Error Conditions</t>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I020/055</t>
-  </si>
-  <si>
-    <t>Mode-1 Code in Octal Representation</t>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I020/050</t>
-  </si>
-  <si>
-    <t>Mode-2 Code in Octal Representation</t>
-  </si>
-  <si>
-    <t>27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RE</t>
-  </si>
-  <si>
-    <t>Reserved Expansion Field</t>
-  </si>
-  <si>
-    <t>28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>Special Purpose Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Length</t>
-  </si>
-  <si>
-    <t>Data Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -656,9 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -671,16 +673,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -688,10 +690,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -702,38 +704,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
@@ -741,13 +743,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>6</v>
@@ -755,13 +757,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -769,24 +771,24 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -794,10 +796,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -805,27 +807,27 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -833,13 +835,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -847,13 +849,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -861,27 +863,27 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -889,24 +891,24 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -914,191 +916,191 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
